--- a/Springer Nature Tests.xlsx
+++ b/Springer Nature Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worre\OneDrive\Documents\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="FA5F75F3993A5DF5EC004F6626D69F1C9D541C0D" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{377CF231-2FCC-4F6B-AC35-9B102D75B243}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="FA5F75F3993A5DF5EC004F6626D69F1C9D541C0D" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{29963FC1-A440-4B1B-8253-F3B041C8E755}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9750" windowHeight="3975" xr2:uid="{74DCBBAA-CE9D-4EFB-AB06-D8FDFE7BB642}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="171">
   <si>
     <t>Ref</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Filter down by category - from preview Not-included results</t>
   </si>
   <si>
-    <t>Filter down by discipline - from preview included results</t>
-  </si>
-  <si>
-    <t>Filter down by discipline - from preview Not-included results</t>
-  </si>
-  <si>
     <t>Click on result by author name #1</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Reorder by relevance</t>
   </si>
   <si>
-    <t>Remove filter by category</t>
-  </si>
-  <si>
     <t>Remove filter by discipline</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
   </si>
   <si>
     <t>Download of 2 items</t>
-  </si>
-  <si>
-    <t>Download of 1,000 items</t>
   </si>
   <si>
     <t>Translate results to German</t>
@@ -464,6 +452,111 @@
   </si>
   <si>
     <t>Kicked off manually</t>
+  </si>
+  <si>
+    <t>Blood -&gt; Searched-&gt; Journals</t>
+  </si>
+  <si>
+    <t>4 results present</t>
+  </si>
+  <si>
+    <t>Blood -&gt; searched -&gt; Protocol refined</t>
+  </si>
+  <si>
+    <t>7 results within protocol</t>
+  </si>
+  <si>
+    <t>Blood -&gt; searched -&gt; Title clicked</t>
+  </si>
+  <si>
+    <t>Article opens</t>
+  </si>
+  <si>
+    <t>Blood -&gt; Searched -&gt; Hughes clicked</t>
+  </si>
+  <si>
+    <t>Other articles by Hughes open</t>
+  </si>
+  <si>
+    <t>Blood -&gt; Searched -&gt; Khamashta</t>
+  </si>
+  <si>
+    <t>Other articles by Khamasta open</t>
+  </si>
+  <si>
+    <t>Blood -&gt; Searched -&gt; Clicked on "Hughes Syndrome: Highways and Byways: 2013"</t>
+  </si>
+  <si>
+    <t>Book detail page opens</t>
+  </si>
+  <si>
+    <t>List reorders</t>
+  </si>
+  <si>
+    <t>N/A?</t>
+  </si>
+  <si>
+    <t>Select "Sort On" newest first</t>
+  </si>
+  <si>
+    <t>Select "Sort On" oldest first</t>
+  </si>
+  <si>
+    <t>Reorder by date and then by relevant</t>
+  </si>
+  <si>
+    <t>Remove filter by content type</t>
+  </si>
+  <si>
+    <t>Search -&gt; filter by chapter -&gt;  remove filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results total goes back up to pre-preview total </t>
+  </si>
+  <si>
+    <t>Search -&gt; filter by biomedicine -&gt;  remove filter</t>
+  </si>
+  <si>
+    <t>Navigate between pages of results</t>
+  </si>
+  <si>
+    <t>Selected page opens</t>
+  </si>
+  <si>
+    <t>Select RSS -&gt; Download</t>
+  </si>
+  <si>
+    <t>User can download RSS file</t>
+  </si>
+  <si>
+    <t>Select to download result set of 1</t>
+  </si>
+  <si>
+    <t>Downloaded to Excel</t>
+  </si>
+  <si>
+    <t>Select to download result set of 2</t>
+  </si>
+  <si>
+    <t>Download of 1,000 + items</t>
+  </si>
+  <si>
+    <t>Select to download result set of 1000+</t>
+  </si>
+  <si>
+    <t>Downloaded to Excel but capped at 1,000</t>
+  </si>
+  <si>
+    <t>Switch language from English to German</t>
+  </si>
+  <si>
+    <t>Website language (filters, icons and navigations) change to German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in English and then switch to German </t>
+  </si>
+  <si>
+    <t>Search redone in German</t>
   </si>
 </sst>
 </file>
@@ -878,17 +971,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358E7D54-B534-435A-97E4-43AD2ECFC995}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1047,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1067,7 +1160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1087,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1107,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1127,156 +1220,364 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1303,600 +1604,600 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="J25" s="6"/>
     </row>
